--- a/biology/Botanique/Quercus_dentata/Quercus_dentata.xlsx
+++ b/biology/Botanique/Quercus_dentata/Quercus_dentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus dentata, également appelé chêne empereur du Japon ou chêne daimyo[réf. nécessaire] (japonais : 柏, kashiwa ; chinois simplifié : 柞栎 ; chinois traditionnel : 柞櫟 ; pinyin : zuòlì ; coréen : 떡갈나무, tteokgalnamu) est une espèce de plantes à fleurs de la famille des Fagaceae. C'est un chêne originaire d'Asie de l'Est (Japon, Corée et Chine)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus dentata, également appelé chêne empereur du Japon ou chêne daimyo[réf. nécessaire] (japonais : 柏, kashiwa ; chinois simplifié : 柞栎 ; chinois traditionnel : 柞櫟 ; pinyin : zuòlì ; coréen : 떡갈나무, tteokgalnamu) est une espèce de plantes à fleurs de la famille des Fagaceae. C'est un chêne originaire d'Asie de l'Est (Japon, Corée et Chine).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus dentata est un arbre à feuilles caduques atteignant 20–25 m de haut, avec un tronc atteignant 1 m de diamètre. Son feuillage est remarquable par sa taille, parmi les plus grands de tous les chênes, composé d'un court pétiole poilu, de 1 à 1,5 cm de long, et d'un limbe de 10 à 40 cm de long et de 15 à 30 cm de large, avec une marge peu lobée ; la forme rappelle une énorme feuille de chêne pédonculé. Les feuilles sont souvent retenues mortes sur l'arbre jusqu'en hiver. Les deux faces de la feuille sont initialement duveteuses, la face supérieure devenant lisse[1].
-Les fleurs sont produites en mai ; les fleurs mâles sont des chatons pendants . Les fleurs femelles sont sessiles , poussant près de l'extrémité des nouvelles pousses, produisant des glands de 1,2–2,3 cm de long et 1,2–1,5 cm de large, dans de larges coupes à écailles touffues ; les glands mûrissent de septembre à octobre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus dentata est un arbre à feuilles caduques atteignant 20–25 m de haut, avec un tronc atteignant 1 m de diamètre. Son feuillage est remarquable par sa taille, parmi les plus grands de tous les chênes, composé d'un court pétiole poilu, de 1 à 1,5 cm de long, et d'un limbe de 10 à 40 cm de long et de 15 à 30 cm de large, avec une marge peu lobée ; la forme rappelle une énorme feuille de chêne pédonculé. Les feuilles sont souvent retenues mortes sur l'arbre jusqu'en hiver. Les deux faces de la feuille sont initialement duveteuses, la face supérieure devenant lisse.
+Les fleurs sont produites en mai ; les fleurs mâles sont des chatons pendants . Les fleurs femelles sont sessiles , poussant près de l'extrémité des nouvelles pousses, produisant des glands de 1,2–2,3 cm de long et 1,2–1,5 cm de large, dans de larges coupes à écailles touffues ; les glands mûrissent de septembre à octobre.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Culture et utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus dentata a été introduit dans les îles britanniques en 1830, où il est parfois cultivé dans les jardins botaniques . Il est généralement plus petit en culture qu'à l'état sauvage, devenant un petit arbre angulaire ou un grand arbuste irrégulier. Les spécimens notables incluent un à Osterley Park 14 m de haut et 1,5 m de circonférence, et le plus grand, 18 m de haut, à Avondale Forest Park, comté de Wicklow, Irlande[2],[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus dentata a été introduit dans les îles britanniques en 1830, où il est parfois cultivé dans les jardins botaniques . Il est généralement plus petit en culture qu'à l'état sauvage, devenant un petit arbre angulaire ou un grand arbuste irrégulier. Les spécimens notables incluent un à Osterley Park 14 m de haut et 1,5 m de circonférence, et le plus grand, 18 m de haut, à Avondale Forest Park, comté de Wicklow, Irlande.
 Dans la cuisine coréenne , ses glands (en hangul : 도토리, dotori ) sont utilisés depuis les Trois Royaumes de Corée. Un aliment notable est le dotorimuk .
-Au Japon , ses feuilles sont utilisées comme emballage pour le kashiwa mochi[5]. 
+Au Japon , ses feuilles sont utilisées comme emballage pour le kashiwa mochi. 
 </t>
         </is>
       </c>
